--- a/Discutions/Link_list.xlsx
+++ b/Discutions/Link_list.xlsx
@@ -1,14 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\Dorin-Irimia\Discutions\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5561672-B3DA-4E49-8056-10AAE2045328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$2</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -18,8 +27,31 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Git Bash</t>
+  </si>
+  <si>
+    <t>Learn</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +81,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +365,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="123.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D1">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Arial"&amp;8&amp;K000000 Internal</oddFooter>
+  </headerFooter>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{6006a9c5-d130-408c-bc8e-3b5ecdb17aa0}" enabled="1" method="Standard" siteId="{8d4b558f-7b2e-40ba-ad1f-e04d79e6265a}" contentBits="2" removed="0"/>
+</clbl:labelList>
 </file>